--- a/research_in_computing/prac03A.xlsx
+++ b/research_in_computing/prac03A.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mscit Dataset\RIC\RIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Playground\msc_practical\research_in_computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061687B4-6D02-41C7-9FA8-EB71E2324C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,30 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$R$101</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="126">
   <si>
     <t>System</t>
   </si>
@@ -49,9 +61,6 @@
     <t>Linux</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
     <t>Sr No</t>
   </si>
   <si>
@@ -391,15 +400,41 @@
     <t>alpha</t>
   </si>
   <si>
-    <t>degree of freedom</t>
+    <t xml:space="preserve">H0 : The population distribution of the variable is the same as the proposed distribution </t>
+  </si>
+  <si>
+    <t>HA : The distributions are different</t>
+  </si>
+  <si>
+    <t>Table Value</t>
+  </si>
+  <si>
+    <t>Calculated Value</t>
+  </si>
+  <si>
+    <t>Null Hypothesis - H0 : The performance of girls students is same as boys students. different.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternate Hypothesis - H1 : The performance of boys and girls students are </t>
+  </si>
+  <si>
+    <t>for df</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -442,12 +477,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,6 +501,138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>100724</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>754774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>345966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47EFFC20-65FF-6BFE-C016-97DD90AF4AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1926896" y="345966"/>
+          <a:ext cx="654050" cy="293414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>558800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BCFB86-4D68-9F49-0DD4-B1707C88E482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4362450" y="266700"/>
+          <a:ext cx="654050" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,90 +897,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*33/100</f>
-        <v>6.6</v>
+        <v>33.33</v>
       </c>
       <c r="D2" s="1">
         <f>((B2-C2)*(B2-C2))/C2</f>
-        <v>27.206060606060607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+        <v>5.3312001200120003</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C4" si="0">B3*33/100</f>
-        <v>19.8</v>
+        <v>33.33</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D4" si="1">((B3-C3)*(B3-C3))/C3</f>
-        <v>81.618181818181824</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+        <f t="shared" ref="D3:D4" si="0">((B3-C3)*(B3-C3))/C3</f>
+        <v>21.340801080108015</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
       </c>
       <c r="C4" s="1">
+        <v>33.33</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="1"/>
-        <v>27.206060606060607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.3312001200120003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
-        <v>136.03030303030303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32.003201320132014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
       <c r="D7">
         <f>CHIINV(0.05,2)</f>
         <v>5.9914645471079817</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" t="str">
         <f>IF(D5&gt;D7,"H0 Accepted","H0 Rejected")</f>
         <v>H0 Accepted</v>
@@ -818,40 +1000,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000Classification: Internal</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -859,46 +1046,46 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -906,46 +1093,46 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -953,46 +1140,46 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
-      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="T4">
+        <v>11</v>
+      </c>
+      <c r="U4">
+        <v>11</v>
+      </c>
+      <c r="V4">
         <v>9</v>
       </c>
-      <c r="K4">
-        <v>11</v>
-      </c>
-      <c r="L4">
+      <c r="W4">
+        <v>11</v>
+      </c>
+      <c r="X4">
         <v>13</v>
       </c>
-      <c r="M4">
+      <c r="Y4">
         <v>7</v>
       </c>
-      <c r="N4">
-        <v>11</v>
-      </c>
-      <c r="O4">
+      <c r="Z4">
+        <v>11</v>
+      </c>
+      <c r="AA4">
         <v>8</v>
       </c>
-      <c r="P4">
+      <c r="AB4">
         <v>13</v>
       </c>
-      <c r="Q4">
+      <c r="AC4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1000,16 +1187,16 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1017,16 +1204,16 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1034,20 +1221,20 @@
         <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <f>COUNTIFS($D$2:$D$101,H3,$E$2:$E$101,H2)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="T7">
+        <f>COUNTIFS($D$2:$D$101,T3,$E$2:$E$101,T2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1055,16 +1242,16 @@
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1072,16 +1259,16 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1089,22 +1276,22 @@
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="S10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="T10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1112,22 +1299,22 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="S11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1135,22 +1322,22 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s">
         <v>14</v>
       </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1158,22 +1345,22 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="S13">
         <v>3</v>
       </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1181,22 +1368,22 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="S14">
         <v>4</v>
       </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1204,16 +1391,16 @@
         <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1221,16 +1408,16 @@
         <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1238,16 +1425,16 @@
         <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1255,16 +1442,16 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1272,16 +1459,16 @@
         <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1289,16 +1476,16 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1306,16 +1493,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1323,16 +1510,16 @@
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1340,16 +1527,16 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1357,16 +1544,16 @@
         <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1374,16 +1561,16 @@
         <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1391,16 +1578,16 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1408,16 +1595,16 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1425,16 +1612,16 @@
         <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1442,16 +1629,16 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1459,16 +1646,16 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
         <v>13</v>
       </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1476,16 +1663,16 @@
         <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1493,16 +1680,16 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1510,16 +1697,16 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1527,16 +1714,16 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1544,16 +1731,16 @@
         <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1561,16 +1748,16 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1578,16 +1765,16 @@
         <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1595,16 +1782,16 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1612,16 +1799,16 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1629,16 +1816,16 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1646,16 +1833,16 @@
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1663,16 +1850,16 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1680,16 +1867,16 @@
         <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
         <v>13</v>
       </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1697,16 +1884,16 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1714,16 +1901,16 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1731,16 +1918,16 @@
         <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1748,16 +1935,16 @@
         <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1765,16 +1952,16 @@
         <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1782,16 +1969,16 @@
         <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1799,16 +1986,16 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1816,16 +2003,16 @@
         <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1833,16 +2020,16 @@
         <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1850,16 +2037,16 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
         <v>13</v>
       </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1867,16 +2054,16 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1884,16 +2071,16 @@
         <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1901,16 +2088,16 @@
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1918,16 +2105,16 @@
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1935,16 +2122,16 @@
         <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1952,16 +2139,16 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1969,16 +2156,16 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1986,16 +2173,16 @@
         <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2003,16 +2190,16 @@
         <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2020,16 +2207,16 @@
         <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2037,16 +2224,16 @@
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2054,16 +2241,16 @@
         <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
         <v>13</v>
       </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2071,16 +2258,16 @@
         <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2088,16 +2275,16 @@
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2105,16 +2292,16 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2122,16 +2309,16 @@
         <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2139,16 +2326,16 @@
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2156,16 +2343,16 @@
         <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
         <v>13</v>
       </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2173,16 +2360,16 @@
         <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2190,16 +2377,16 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2207,16 +2394,16 @@
         <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
         <v>13</v>
       </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2224,16 +2411,16 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2241,16 +2428,16 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2258,16 +2445,16 @@
         <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2275,16 +2462,16 @@
         <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2292,16 +2479,16 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2309,16 +2496,16 @@
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2326,16 +2513,16 @@
         <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2343,16 +2530,16 @@
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2360,16 +2547,16 @@
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2377,16 +2564,16 @@
         <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2394,16 +2581,16 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2411,16 +2598,16 @@
         <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2428,16 +2615,16 @@
         <v>46</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2445,16 +2632,16 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2462,16 +2649,16 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2479,16 +2666,16 @@
         <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2496,16 +2683,16 @@
         <v>54</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2513,16 +2700,16 @@
         <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2530,16 +2717,16 @@
         <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2547,16 +2734,16 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2564,16 +2751,16 @@
         <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2581,16 +2768,16 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2598,16 +2785,16 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2615,16 +2802,16 @@
         <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2632,16 +2819,16 @@
         <v>86</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2649,16 +2836,16 @@
         <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2666,177 +2853,192 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E101">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E101">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000Classification: Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="G1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <f>SUM(B2:F2)</f>
         <v>57</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>(B2-B5)^2/B5+(C2-C5)^2/C5+(D2-D5)^2/D5+(E2-E5)^2/E5+(F2-F5)^2/F5</f>
         <v>21.176315789473684</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
+      <c r="J2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <f>SUM(B3:F3)</f>
         <v>43</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>(B3-B5)^2/B5+(C3-C5)^2/C5+(D3-D5)^2/D5+(E3-E5)^2/E5+(F3-F5)^2/F5</f>
         <v>18.509649122807016</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4">
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="1">
         <f t="shared" ref="B4:H4" si="0">SUM(B2:B3)</f>
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>39.685964912280696</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>9.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>9.5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>0.05</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F7">
         <f>(2-1)*(5-1)</f>
@@ -2847,7 +3049,7 @@
         <v>9.4877290367811575</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H9" t="str">
         <f>IF(H4&gt;H7,"H0 is Accepted","H0 is Rejected")</f>
         <v>H0 is Accepted</v>
@@ -2855,5 +3057,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000Classification: Internal</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>